--- a/Vorkurs_22.xlsx
+++ b/Vorkurs_22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\Forschung\Broca-Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorgo\Documents\Lehre\temp_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DE2639-9134-4F82-9F35-418BB62529AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA31B12B-14FA-493B-9812-FDD24FCB06DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorkurs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="394">
   <si>
     <t>Vorname</t>
   </si>
@@ -746,70 +746,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>ANTWORT-</t>
-  </si>
-  <si>
-    <t>ZU</t>
-  </si>
-  <si>
-    <t>NEU</t>
-  </si>
-  <si>
-    <t>MÖGLICHKEITEN</t>
-  </si>
-  <si>
-    <t>UNGENAUE</t>
-  </si>
-  <si>
-    <t>HINZUGEFÜGT</t>
-  </si>
-  <si>
-    <t>Keine Zeit</t>
-  </si>
-  <si>
-    <t>ALS</t>
-  </si>
-  <si>
-    <t>ÄHNLICH</t>
-  </si>
-  <si>
-    <t>LEICHTERE</t>
-  </si>
-  <si>
     <t>Zu erfahren</t>
   </si>
   <si>
-    <t>AUFGABE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERGLEICH </t>
-  </si>
-  <si>
-    <t>ZU 7.1</t>
-  </si>
-  <si>
     <t>5JS4143</t>
   </si>
   <si>
-    <t xml:space="preserve">NACH DER </t>
-  </si>
-  <si>
-    <t>PAUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEGANGEN </t>
-  </si>
-  <si>
-    <t>Corona - hat die for-Schleifen am vormittag vor meinem Abschlusstest noch zu Ende bearbeitet + while und Listen angefangen</t>
-  </si>
-  <si>
     <t>8AB4138</t>
-  </si>
-  <si>
-    <t>NICHT ERSCHIENEN - GRUND UNBEKANNT</t>
   </si>
   <si>
     <t>Durchschnitt 
@@ -1212,6 +1155,78 @@
   </si>
   <si>
     <t>Evtl. bessere zeitliche Strukturierung - an den ersten beiden Tagen waren wir 3 Stunden eher fertig und in den letzten Tagen musste dann überzogen bzw. Stoff weggelassen werden. Sonst war alles top und ich bin dankbar für die Möglichkeit.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1238,7 @@
     <numFmt numFmtId="165" formatCode="d\.m\.yy"/>
     <numFmt numFmtId="166" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1307,6 +1322,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1442,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1501,8 +1523,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1581,6 +1601,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1806,12 +1829,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75">
+    <row r="1" spans="1:26" ht="12.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1868,7 +1891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.75">
+    <row r="2" spans="1:26" ht="12.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1902,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75">
+    <row r="3" spans="1:26" ht="12.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1927,10 +1950,10 @@
       <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="6">
         <v>1</v>
       </c>
@@ -1952,7 +1975,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75">
+    <row r="4" spans="1:26" ht="12.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1986,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75">
+    <row r="5" spans="1:26" ht="12.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2018,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75">
+    <row r="6" spans="1:26" ht="12.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2043,10 +2066,10 @@
       <c r="H6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="77"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="9">
         <v>2</v>
       </c>
@@ -2068,7 +2091,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75">
+    <row r="7" spans="1:26" ht="12.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2102,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75">
+    <row r="8" spans="1:26" ht="12.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2140,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75">
+    <row r="9" spans="1:26" ht="12.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2178,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75">
+    <row r="10" spans="1:26" ht="12.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2212,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75">
+    <row r="11" spans="1:26" ht="12.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2248,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75">
+    <row r="12" spans="1:26" ht="12.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2286,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75">
+    <row r="13" spans="1:26" ht="12.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2320,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75">
+    <row r="14" spans="1:26" ht="12.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2358,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75">
+    <row r="15" spans="1:26" ht="12.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2396,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75">
+    <row r="16" spans="1:26" ht="12.5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2448,7 +2471,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75">
+    <row r="17" spans="1:26" ht="12.5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2473,10 +2496,10 @@
       <c r="H17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="77"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
@@ -2512,7 +2535,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75">
+    <row r="18" spans="1:26" ht="12.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2546,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75">
+    <row r="19" spans="1:26" ht="12.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2580,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12.75">
+    <row r="20" spans="1:26" ht="12.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2618,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12.75">
+    <row r="21" spans="1:26" ht="12.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2690,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12.75">
+    <row r="23" spans="1:26" ht="12.5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2724,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12.75">
+    <row r="24" spans="1:26" ht="12.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2758,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="12.75">
+    <row r="25" spans="1:26" ht="12.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2796,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12.75">
+    <row r="26" spans="1:26" ht="12.5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2834,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="12.75">
+    <row r="27" spans="1:26" ht="12.5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2916,7 +2939,7 @@
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75">
+    <row r="29" spans="1:26" ht="12.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2973,9 +2996,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="13">
       <c r="A1" s="17" t="s">
         <v>158</v>
       </c>
@@ -3016,7 +3039,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>171</v>
       </c>
@@ -3057,7 +3080,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>173</v>
       </c>
@@ -3098,7 +3121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>174</v>
       </c>
@@ -3139,7 +3162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>176</v>
       </c>
@@ -3180,7 +3203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>179</v>
       </c>
@@ -3221,7 +3244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>181</v>
       </c>
@@ -3262,7 +3285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>182</v>
       </c>
@@ -3301,7 +3324,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>184</v>
       </c>
@@ -3342,7 +3365,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>187</v>
       </c>
@@ -3383,7 +3406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>188</v>
       </c>
@@ -3424,7 +3447,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>190</v>
       </c>
@@ -3465,7 +3488,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>192</v>
       </c>
@@ -3506,7 +3529,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>193</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="12.5">
       <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
@@ -3588,7 +3611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="12.5">
       <c r="A16" s="22" t="s">
         <v>196</v>
       </c>
@@ -3629,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="12.5">
       <c r="A17" s="22" t="s">
         <v>197</v>
       </c>
@@ -3670,7 +3693,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="12.5">
       <c r="A18" s="22" t="s">
         <v>198</v>
       </c>
@@ -3711,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="12.5">
       <c r="A19" s="22" t="s">
         <v>199</v>
       </c>
@@ -3752,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="12.5">
       <c r="A20" s="22" t="s">
         <v>200</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="12.5">
       <c r="A21" s="22" t="s">
         <v>201</v>
       </c>
@@ -3834,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="12.5">
       <c r="A22" s="22" t="s">
         <v>202</v>
       </c>
@@ -3891,17 +3914,17 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="14" max="14" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3943,7 +3966,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A12" si="0">ROW(A1)</f>
         <v>1</v>
@@ -3985,7 +4008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4027,7 +4050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4069,7 +4092,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4111,7 +4134,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4156,7 +4179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4198,7 +4221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4240,7 +4263,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4282,7 +4305,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4324,7 +4347,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4366,7 +4389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4421,116 +4444,118 @@
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="14">
       <c r="A1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="28">
-        <v>44562</v>
-      </c>
-      <c r="C1" s="28">
-        <v>44593</v>
-      </c>
-      <c r="D1" s="29">
-        <v>44563</v>
-      </c>
-      <c r="E1" s="29">
-        <v>44594</v>
-      </c>
-      <c r="F1" s="29">
-        <v>44622</v>
-      </c>
-      <c r="G1" s="29">
-        <v>44653</v>
-      </c>
-      <c r="H1" s="29">
-        <v>44683</v>
+      <c r="B1" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>376</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="M1" s="28">
-        <v>44623</v>
-      </c>
-      <c r="N1" s="28">
-        <v>44654</v>
-      </c>
-      <c r="O1" s="29">
-        <v>44565</v>
-      </c>
-      <c r="P1" s="29">
-        <v>44596</v>
-      </c>
-      <c r="Q1" s="28">
-        <v>44566</v>
-      </c>
-      <c r="R1" s="28">
-        <v>44597</v>
-      </c>
-      <c r="S1" s="28">
-        <v>44625</v>
-      </c>
-      <c r="T1" s="28">
-        <v>44656</v>
-      </c>
-      <c r="U1" s="29">
-        <v>44567</v>
-      </c>
-      <c r="V1" s="29">
-        <v>44598</v>
-      </c>
-      <c r="W1" s="29">
-        <v>44626</v>
-      </c>
-      <c r="X1" s="29">
-        <v>44657</v>
-      </c>
-      <c r="Y1" s="28">
-        <v>44568</v>
-      </c>
-      <c r="Z1" s="28">
-        <v>44599</v>
-      </c>
-      <c r="AA1" s="28">
-        <v>44627</v>
-      </c>
-      <c r="AB1" s="28">
-        <v>44658</v>
-      </c>
-      <c r="AC1" s="28">
-        <v>44688</v>
-      </c>
-      <c r="AD1" s="30" t="s">
+      <c r="M1" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y1" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:32" ht="14">
+      <c r="A2" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -4551,19 +4576,17 @@
       <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="30">
-        <v>5</v>
-      </c>
-      <c r="K2" s="30">
-        <v>2</v>
-      </c>
-      <c r="L2" s="30">
-        <v>2</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="30">
+      <c r="J2" s="28">
+        <v>5</v>
+      </c>
+      <c r="K2" s="28">
+        <v>2</v>
+      </c>
+      <c r="L2" s="28">
+        <v>2</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28">
         <v>9</v>
       </c>
       <c r="O2" s="3">
@@ -4572,16 +4595,16 @@
       <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="28">
         <v>6</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="28">
         <v>7</v>
       </c>
-      <c r="S2" s="30">
-        <v>1</v>
-      </c>
-      <c r="T2" s="30">
+      <c r="S2" s="28">
+        <v>1</v>
+      </c>
+      <c r="T2" s="28">
         <v>3</v>
       </c>
       <c r="U2" s="3">
@@ -4590,46 +4613,42 @@
       <c r="V2" s="3">
         <v>10</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="W2" s="3"/>
       <c r="X2" s="3">
         <v>13</v>
       </c>
-      <c r="Y2" s="30">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA2" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="30">
+      <c r="Y2" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="28">
         <v>4</v>
       </c>
-      <c r="AD2" s="30">
+      <c r="AD2" s="28">
         <v>9</v>
       </c>
-      <c r="AE2" s="30">
+      <c r="AE2" s="28">
         <v>10</v>
       </c>
-      <c r="AF2" s="30">
+      <c r="AF2" s="28">
         <f t="shared" ref="AF2:AF4" si="0">SUM(B2:AE2)/155*100</f>
         <v>92.258064516129039</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:32" ht="14">
+      <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>6</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>7</v>
       </c>
       <c r="D3" s="3">
@@ -4650,19 +4669,17 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <v>4.5</v>
       </c>
-      <c r="K3" s="30">
-        <v>2</v>
-      </c>
-      <c r="L3" s="30">
-        <v>2</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="N3" s="30">
+      <c r="K3" s="28">
+        <v>2</v>
+      </c>
+      <c r="L3" s="28">
+        <v>2</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28">
         <v>9</v>
       </c>
       <c r="O3" s="3">
@@ -4671,16 +4688,16 @@
       <c r="P3" s="3">
         <v>9</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="28">
         <v>6</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="28">
         <v>5.5</v>
       </c>
-      <c r="S3" s="30">
-        <v>2</v>
-      </c>
-      <c r="T3" s="30">
+      <c r="S3" s="28">
+        <v>2</v>
+      </c>
+      <c r="T3" s="28">
         <v>3</v>
       </c>
       <c r="U3" s="3">
@@ -4689,38 +4706,32 @@
       <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="W3" s="3"/>
       <c r="X3" s="3">
         <v>13</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="28">
         <v>3.5</v>
       </c>
-      <c r="Z3" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA3" s="33" t="s">
-        <v>240</v>
-      </c>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="31"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="30">
+      <c r="AF3" s="28">
         <f t="shared" si="0"/>
         <v>72.58064516129032</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:32" ht="14">
+      <c r="A4" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>6</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>7</v>
       </c>
       <c r="D4" s="3">
@@ -4741,19 +4752,17 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="30">
-        <v>5</v>
-      </c>
-      <c r="K4" s="30">
-        <v>1</v>
-      </c>
-      <c r="L4" s="30">
-        <v>2</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="N4" s="30">
+      <c r="J4" s="28">
+        <v>5</v>
+      </c>
+      <c r="K4" s="28">
+        <v>1</v>
+      </c>
+      <c r="L4" s="28">
+        <v>2</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28">
         <v>9</v>
       </c>
       <c r="O4" s="3">
@@ -4762,16 +4771,16 @@
       <c r="P4" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="30">
-        <v>5</v>
-      </c>
-      <c r="R4" s="30">
+      <c r="Q4" s="28">
+        <v>5</v>
+      </c>
+      <c r="R4" s="28">
         <v>7</v>
       </c>
-      <c r="S4" s="30">
-        <v>2</v>
-      </c>
-      <c r="T4" s="30">
+      <c r="S4" s="28">
+        <v>2</v>
+      </c>
+      <c r="T4" s="28">
         <v>3</v>
       </c>
       <c r="U4" s="3">
@@ -4780,40 +4789,36 @@
       <c r="V4" s="3">
         <v>9</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="W4" s="3"/>
       <c r="X4" s="3">
         <v>13</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="28">
         <v>6</v>
       </c>
-      <c r="Z4" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA4" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="30">
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="28">
         <v>4</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="28">
         <v>6</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="28">
         <v>8</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="28">
         <f t="shared" si="0"/>
         <v>90.322580645161281</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="7"/>
@@ -4827,9 +4832,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="33" t="s">
-        <v>242</v>
-      </c>
+      <c r="M5" s="31"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -4839,27 +4842,23 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="33" t="s">
-        <v>237</v>
-      </c>
+      <c r="W5" s="31"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="33" t="s">
-        <v>243</v>
-      </c>
+      <c r="Z5" s="31"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="33"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="33" t="s">
+      <c r="AF5" s="31"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>244</v>
+      <c r="B6" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4884,24 +4883,22 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="33" t="s">
-        <v>245</v>
-      </c>
+      <c r="Z6" s="31"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="33"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AF6" s="31"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <v>6</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>7</v>
       </c>
       <c r="D7" s="3">
@@ -4922,17 +4919,17 @@
       <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <v>4.5</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>1.5</v>
       </c>
-      <c r="L7" s="30">
-        <v>2</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="30">
+      <c r="L7" s="28">
+        <v>2</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="28">
         <v>9</v>
       </c>
       <c r="O7" s="3">
@@ -4941,16 +4938,16 @@
       <c r="P7" s="3">
         <v>5</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="28">
         <v>6</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="28">
         <v>4</v>
       </c>
-      <c r="S7" s="30">
-        <v>3</v>
-      </c>
-      <c r="T7" s="30">
+      <c r="S7" s="28">
+        <v>3</v>
+      </c>
+      <c r="T7" s="28">
         <v>3</v>
       </c>
       <c r="U7" s="3">
@@ -4962,40 +4959,38 @@
       <c r="X7" s="3">
         <v>13</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="28">
         <v>6</v>
       </c>
-      <c r="Z7" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA7" s="30">
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28">
         <v>4</v>
       </c>
-      <c r="AB7" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="30">
+      <c r="AB7" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="28">
         <v>4</v>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="28">
         <v>8</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="28">
         <v>9</v>
       </c>
-      <c r="AF7" s="30">
+      <c r="AF7" s="28">
         <f t="shared" ref="AF7:AF10" si="1">SUM(B7:AE7)/155*100</f>
         <v>90.967741935483872</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>7</v>
       </c>
       <c r="D8" s="3">
@@ -5016,17 +5011,17 @@
       <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="30">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="J8" s="28">
+        <v>5</v>
+      </c>
+      <c r="K8" s="28">
         <v>1.5</v>
       </c>
-      <c r="L8" s="30">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="30">
+      <c r="L8" s="28">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="28">
         <v>9</v>
       </c>
       <c r="O8" s="3">
@@ -5035,16 +5030,16 @@
       <c r="P8" s="3">
         <v>9</v>
       </c>
-      <c r="Q8" s="30">
-        <v>5</v>
-      </c>
-      <c r="R8" s="30">
+      <c r="Q8" s="28">
+        <v>5</v>
+      </c>
+      <c r="R8" s="28">
         <v>7</v>
       </c>
-      <c r="S8" s="30">
-        <v>3</v>
-      </c>
-      <c r="T8" s="30">
+      <c r="S8" s="28">
+        <v>3</v>
+      </c>
+      <c r="T8" s="28">
         <v>4</v>
       </c>
       <c r="U8" s="3">
@@ -5056,40 +5051,38 @@
       <c r="X8" s="3">
         <v>13</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="28">
         <v>6</v>
       </c>
-      <c r="Z8" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA8" s="30">
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28">
         <v>4</v>
       </c>
-      <c r="AB8" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="30">
+      <c r="AB8" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="28">
         <v>4</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="28">
         <v>11</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="28">
         <v>10</v>
       </c>
-      <c r="AF8" s="30">
+      <c r="AF8" s="28">
         <f t="shared" si="1"/>
         <v>98.387096774193552</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>7</v>
       </c>
       <c r="D9" s="3">
@@ -5110,17 +5103,17 @@
       <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="30">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30">
-        <v>2</v>
-      </c>
-      <c r="L9" s="30">
-        <v>2</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="30">
+      <c r="J9" s="28">
+        <v>5</v>
+      </c>
+      <c r="K9" s="28">
+        <v>2</v>
+      </c>
+      <c r="L9" s="28">
+        <v>2</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="28">
         <v>9</v>
       </c>
       <c r="O9" s="3">
@@ -5129,16 +5122,16 @@
       <c r="P9" s="3">
         <v>9</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="28">
         <v>6</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="28">
         <v>7</v>
       </c>
-      <c r="S9" s="30">
-        <v>3</v>
-      </c>
-      <c r="T9" s="30">
+      <c r="S9" s="28">
+        <v>3</v>
+      </c>
+      <c r="T9" s="28">
         <v>3</v>
       </c>
       <c r="U9" s="3">
@@ -5150,40 +5143,38 @@
       <c r="X9" s="3">
         <v>13</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="28">
         <v>6</v>
       </c>
-      <c r="Z9" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA9" s="30">
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28">
         <v>4</v>
       </c>
-      <c r="AB9" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="30">
+      <c r="AB9" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="28">
         <v>4</v>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="28">
         <v>12</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="28">
         <v>10</v>
       </c>
-      <c r="AF9" s="30">
+      <c r="AF9" s="28">
         <f t="shared" si="1"/>
         <v>98.709677419354833</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>7</v>
       </c>
       <c r="D10" s="3">
@@ -5204,17 +5195,17 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="28">
         <v>4.5</v>
       </c>
-      <c r="K10" s="30">
-        <v>2</v>
-      </c>
-      <c r="L10" s="30">
-        <v>2</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="30">
+      <c r="K10" s="28">
+        <v>2</v>
+      </c>
+      <c r="L10" s="28">
+        <v>2</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="28">
         <v>7</v>
       </c>
       <c r="O10" s="3">
@@ -5223,16 +5214,16 @@
       <c r="P10" s="3">
         <v>5</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="28">
         <v>6</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="28">
         <v>7</v>
       </c>
-      <c r="S10" s="30">
-        <v>3</v>
-      </c>
-      <c r="T10" s="30">
+      <c r="S10" s="28">
+        <v>3</v>
+      </c>
+      <c r="T10" s="28">
         <v>3</v>
       </c>
       <c r="U10" s="3">
@@ -5244,32 +5235,32 @@
       <c r="X10" s="3">
         <v>3</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="28">
         <v>6</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="30">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="28">
         <v>4</v>
       </c>
-      <c r="AB10" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="30">
+      <c r="AB10" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="28">
         <v>7</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="28">
         <v>10</v>
       </c>
-      <c r="AF10" s="30">
+      <c r="AF10" s="28">
         <f t="shared" si="1"/>
         <v>81.612903225806448</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A11" s="31" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="7"/>
@@ -5302,11 +5293,11 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="33"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="33" t="s">
-        <v>249</v>
+      <c r="AF11" s="31"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5338,16 +5329,16 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="33"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AF12" s="31"/>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="28">
         <v>6</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="28">
         <v>7</v>
       </c>
       <c r="D13" s="3">
@@ -5368,17 +5359,17 @@
       <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="30">
-        <v>5</v>
-      </c>
-      <c r="K13" s="30">
-        <v>2</v>
-      </c>
-      <c r="L13" s="30">
-        <v>2</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="30">
+      <c r="J13" s="28">
+        <v>5</v>
+      </c>
+      <c r="K13" s="28">
+        <v>2</v>
+      </c>
+      <c r="L13" s="28">
+        <v>2</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="28">
         <v>9</v>
       </c>
       <c r="O13" s="3">
@@ -5387,16 +5378,16 @@
       <c r="P13" s="3">
         <v>9</v>
       </c>
-      <c r="Q13" s="30">
-        <v>5</v>
-      </c>
-      <c r="R13" s="30">
+      <c r="Q13" s="28">
+        <v>5</v>
+      </c>
+      <c r="R13" s="28">
         <v>7</v>
       </c>
-      <c r="S13" s="30">
-        <v>2</v>
-      </c>
-      <c r="T13" s="30">
+      <c r="S13" s="28">
+        <v>2</v>
+      </c>
+      <c r="T13" s="28">
         <v>3</v>
       </c>
       <c r="U13" s="3">
@@ -5408,38 +5399,38 @@
       <c r="X13" s="3">
         <v>13</v>
       </c>
-      <c r="Y13" s="30">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="30">
+      <c r="Y13" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="28">
         <v>4</v>
       </c>
-      <c r="AD13" s="30">
+      <c r="AD13" s="28">
         <v>11.5</v>
       </c>
-      <c r="AE13" s="30">
+      <c r="AE13" s="28">
         <v>10</v>
       </c>
-      <c r="AF13" s="30">
+      <c r="AF13" s="28">
         <f t="shared" ref="AF13:AF21" si="2">SUM(B13:AE13)/155*100</f>
         <v>95.161290322580655</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <v>6</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <v>7</v>
       </c>
       <c r="D14" s="3">
@@ -5460,17 +5451,17 @@
       <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="28">
         <v>2.5</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="28">
         <v>1.5</v>
       </c>
-      <c r="L14" s="30">
-        <v>2</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30">
+      <c r="L14" s="28">
+        <v>2</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28">
         <v>8.5</v>
       </c>
       <c r="O14" s="3">
@@ -5479,16 +5470,16 @@
       <c r="P14" s="3">
         <v>5</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="28">
         <v>6</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="28">
         <v>7</v>
       </c>
-      <c r="S14" s="30">
-        <v>2</v>
-      </c>
-      <c r="T14" s="30">
+      <c r="S14" s="28">
+        <v>2</v>
+      </c>
+      <c r="T14" s="28">
         <v>3</v>
       </c>
       <c r="U14" s="3">
@@ -5500,38 +5491,38 @@
       <c r="X14" s="3">
         <v>6</v>
       </c>
-      <c r="Y14" s="30">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="30">
+      <c r="Y14" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="28">
         <v>4</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="28">
         <v>4</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="28">
         <v>3.5</v>
       </c>
-      <c r="AD14" s="30">
+      <c r="AD14" s="28">
         <v>5.5</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="28">
         <v>8</v>
       </c>
-      <c r="AF14" s="30">
+      <c r="AF14" s="28">
         <f t="shared" si="2"/>
         <v>79.032258064516128</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" ht="12.5">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>6</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>7</v>
       </c>
       <c r="D15" s="3">
@@ -5552,17 +5543,17 @@
       <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="30">
-        <v>5</v>
-      </c>
-      <c r="K15" s="30">
+      <c r="J15" s="28">
+        <v>5</v>
+      </c>
+      <c r="K15" s="28">
         <v>1.5</v>
       </c>
-      <c r="L15" s="30">
-        <v>2</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="30">
+      <c r="L15" s="28">
+        <v>2</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="28">
         <v>9</v>
       </c>
       <c r="O15" s="3">
@@ -5571,16 +5562,16 @@
       <c r="P15" s="3">
         <v>9</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="28">
         <v>6</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="28">
         <v>7</v>
       </c>
-      <c r="S15" s="30">
-        <v>3</v>
-      </c>
-      <c r="T15" s="30">
+      <c r="S15" s="28">
+        <v>3</v>
+      </c>
+      <c r="T15" s="28">
         <v>3</v>
       </c>
       <c r="U15" s="3">
@@ -5592,38 +5583,38 @@
       <c r="X15" s="3">
         <v>13</v>
       </c>
-      <c r="Y15" s="30">
+      <c r="Y15" s="28">
         <v>6</v>
       </c>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="30">
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="28">
         <v>4</v>
       </c>
-      <c r="AB15" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="30">
+      <c r="AB15" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="28">
         <v>3.5</v>
       </c>
-      <c r="AD15" s="30">
+      <c r="AD15" s="28">
         <v>12</v>
       </c>
-      <c r="AE15" s="30">
+      <c r="AE15" s="28">
         <v>10</v>
       </c>
-      <c r="AF15" s="30">
+      <c r="AF15" s="28">
         <f t="shared" si="2"/>
         <v>98.064516129032256</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" ht="12.5">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="28">
         <v>6</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="28">
         <v>7</v>
       </c>
       <c r="D16" s="3">
@@ -5644,17 +5635,17 @@
       <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <v>4.5</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <v>1.5</v>
       </c>
-      <c r="L16" s="30">
-        <v>2</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="30">
+      <c r="L16" s="28">
+        <v>2</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="28">
         <v>8</v>
       </c>
       <c r="O16" s="3">
@@ -5663,16 +5654,16 @@
       <c r="P16" s="3">
         <v>4</v>
       </c>
-      <c r="Q16" s="30">
-        <v>5</v>
-      </c>
-      <c r="R16" s="30">
+      <c r="Q16" s="28">
+        <v>5</v>
+      </c>
+      <c r="R16" s="28">
         <v>7</v>
       </c>
-      <c r="S16" s="30">
-        <v>3</v>
-      </c>
-      <c r="T16" s="30">
+      <c r="S16" s="28">
+        <v>3</v>
+      </c>
+      <c r="T16" s="28">
         <v>3</v>
       </c>
       <c r="U16" s="3">
@@ -5684,38 +5675,38 @@
       <c r="X16" s="3">
         <v>13</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="28">
         <v>1.5</v>
       </c>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="30">
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="28">
         <v>4</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="28">
         <v>8</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="28">
         <f t="shared" si="2"/>
         <v>79.677419354838705</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" ht="12.5">
       <c r="A17" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>6</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <v>7</v>
       </c>
       <c r="D17" s="3">
@@ -5736,17 +5727,17 @@
       <c r="I17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="30">
-        <v>5</v>
-      </c>
-      <c r="K17" s="30">
-        <v>2</v>
-      </c>
-      <c r="L17" s="30">
-        <v>2</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="30">
+      <c r="J17" s="28">
+        <v>5</v>
+      </c>
+      <c r="K17" s="28">
+        <v>2</v>
+      </c>
+      <c r="L17" s="28">
+        <v>2</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="28">
         <v>9</v>
       </c>
       <c r="O17" s="3">
@@ -5755,16 +5746,16 @@
       <c r="P17" s="3">
         <v>5</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="28">
         <v>6</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="28">
         <v>7</v>
       </c>
-      <c r="S17" s="30">
-        <v>1</v>
-      </c>
-      <c r="T17" s="30">
+      <c r="S17" s="28">
+        <v>1</v>
+      </c>
+      <c r="T17" s="28">
         <v>3</v>
       </c>
       <c r="U17" s="3">
@@ -5776,38 +5767,38 @@
       <c r="X17" s="3">
         <v>13</v>
       </c>
-      <c r="Y17" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="30">
+      <c r="Y17" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="28">
         <v>4</v>
       </c>
-      <c r="AD17" s="30">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="30">
+      <c r="AD17" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="28">
         <v>8</v>
       </c>
-      <c r="AF17" s="30">
+      <c r="AF17" s="28">
         <f t="shared" si="2"/>
         <v>85.161290322580641</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" ht="12.5">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="30">
-        <v>5</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="28">
+        <v>5</v>
+      </c>
+      <c r="C18" s="28">
         <v>7</v>
       </c>
       <c r="D18" s="3">
@@ -5828,29 +5819,23 @@
       <c r="I18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>252</v>
-      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="30">
+      <c r="Q18" s="28">
         <v>6</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="28">
         <v>7</v>
       </c>
-      <c r="S18" s="30">
-        <v>3</v>
-      </c>
-      <c r="T18" s="30">
+      <c r="S18" s="28">
+        <v>3</v>
+      </c>
+      <c r="T18" s="28">
         <v>4</v>
       </c>
       <c r="U18" s="3">
@@ -5862,38 +5847,38 @@
       <c r="X18" s="3">
         <v>13</v>
       </c>
-      <c r="Y18" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="30">
+      <c r="Y18" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="28">
         <v>3.5</v>
       </c>
-      <c r="AB18" s="30">
+      <c r="AB18" s="28">
         <v>4.5</v>
       </c>
-      <c r="AC18" s="30">
+      <c r="AC18" s="28">
         <v>4</v>
       </c>
-      <c r="AD18" s="30">
+      <c r="AD18" s="28">
         <v>12</v>
       </c>
-      <c r="AE18" s="30">
+      <c r="AE18" s="28">
         <v>10</v>
       </c>
-      <c r="AF18" s="30">
+      <c r="AF18" s="28">
         <f t="shared" si="2"/>
         <v>72.258064516129025</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" ht="12.5">
       <c r="A19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="28">
         <v>6</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="28">
         <v>7</v>
       </c>
       <c r="D19" s="3">
@@ -5914,17 +5899,17 @@
       <c r="I19" s="3">
         <v>3</v>
       </c>
-      <c r="J19" s="30">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30">
-        <v>2</v>
-      </c>
-      <c r="L19" s="30">
-        <v>2</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="30">
+      <c r="J19" s="28">
+        <v>5</v>
+      </c>
+      <c r="K19" s="28">
+        <v>2</v>
+      </c>
+      <c r="L19" s="28">
+        <v>2</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="28">
         <v>9</v>
       </c>
       <c r="O19" s="3">
@@ -5933,16 +5918,16 @@
       <c r="P19" s="3">
         <v>9</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="28">
         <v>6</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="28">
         <v>7</v>
       </c>
-      <c r="S19" s="30">
-        <v>3</v>
-      </c>
-      <c r="T19" s="30">
+      <c r="S19" s="28">
+        <v>3</v>
+      </c>
+      <c r="T19" s="28">
         <v>4</v>
       </c>
       <c r="U19" s="3">
@@ -5954,29 +5939,25 @@
       <c r="X19" s="3">
         <v>13</v>
       </c>
-      <c r="Y19" s="30">
+      <c r="Y19" s="28">
         <v>6</v>
       </c>
-      <c r="Z19" s="33" t="s">
-        <v>253</v>
-      </c>
+      <c r="Z19" s="31"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
-      <c r="AF19" s="30">
+      <c r="AF19" s="28">
         <f t="shared" si="2"/>
         <v>77.41935483870968</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" ht="12.5">
       <c r="A20" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>255</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B20" s="31"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -5991,16 +5972,16 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="30">
+      <c r="Q20" s="28">
         <v>6</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="28">
         <v>7</v>
       </c>
-      <c r="S20" s="30">
-        <v>3</v>
-      </c>
-      <c r="T20" s="30">
+      <c r="S20" s="28">
+        <v>3</v>
+      </c>
+      <c r="T20" s="28">
         <v>3</v>
       </c>
       <c r="U20" s="3">
@@ -6012,30 +5993,28 @@
       <c r="X20" s="3">
         <v>13</v>
       </c>
-      <c r="Y20" s="30">
+      <c r="Y20" s="28">
         <v>0.5</v>
       </c>
-      <c r="Z20" s="33" t="s">
-        <v>240</v>
-      </c>
+      <c r="Z20" s="31"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-      <c r="AF20" s="30">
+      <c r="AF20" s="28">
         <f t="shared" si="2"/>
         <v>28.70967741935484</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="12.5">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <v>6</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>7</v>
       </c>
       <c r="D21" s="3">
@@ -6056,17 +6035,17 @@
       <c r="I21" s="3">
         <v>3</v>
       </c>
-      <c r="J21" s="30">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30">
-        <v>2</v>
-      </c>
-      <c r="L21" s="30">
-        <v>2</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="30">
+      <c r="J21" s="28">
+        <v>5</v>
+      </c>
+      <c r="K21" s="28">
+        <v>2</v>
+      </c>
+      <c r="L21" s="28">
+        <v>2</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="28">
         <v>9</v>
       </c>
       <c r="O21" s="3">
@@ -6075,16 +6054,16 @@
       <c r="P21" s="3">
         <v>5</v>
       </c>
-      <c r="Q21" s="30">
-        <v>5</v>
-      </c>
-      <c r="R21" s="30">
+      <c r="Q21" s="28">
+        <v>5</v>
+      </c>
+      <c r="R21" s="28">
         <v>7</v>
       </c>
-      <c r="S21" s="30">
-        <v>1</v>
-      </c>
-      <c r="T21" s="30">
+      <c r="S21" s="28">
+        <v>1</v>
+      </c>
+      <c r="T21" s="28">
         <v>2</v>
       </c>
       <c r="U21" s="3">
@@ -6096,166 +6075,164 @@
       <c r="X21" s="3">
         <v>13</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="28">
         <v>2.5</v>
       </c>
-      <c r="Z21" s="33" t="s">
-        <v>240</v>
-      </c>
+      <c r="Z21" s="31"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="30">
+      <c r="AF21" s="28">
         <f t="shared" si="2"/>
         <v>69.354838709677423</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="30"/>
-    </row>
-    <row r="23" spans="1:32">
+    <row r="22" spans="1:32" ht="12.5">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="28"/>
+    </row>
+    <row r="23" spans="1:32" ht="14">
       <c r="A23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="35">
+        <v>237</v>
+      </c>
+      <c r="B23" s="33">
         <f>AVERAGE(B2:B21)/6*100</f>
         <v>98.888888888888886</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <f>AVERAGE(C2:C22)/7*100</f>
         <v>100</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <f>AVERAGE(D2:D22)/6*100</f>
         <v>92.222222222222214</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <f>AVERAGE(E2:E22)/5*100</f>
         <v>98.666666666666671</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <f>AVERAGE(F2:F22)/2*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <f>AVERAGE(G2:G22)/5*100</f>
         <v>100</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="34">
         <f t="shared" ref="H23:I23" si="3">AVERAGE(H2:H22)/3*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <f>AVERAGE(J2:J22)/5*100</f>
         <v>93.571428571428569</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="35">
         <f t="shared" ref="K23:L23" si="4">AVERAGE(K2:K22)/2*100</f>
         <v>87.5</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="35">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35">
         <f>AVERAGE(N2:N22)/9*100</f>
         <v>97.222222222222214</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="35">
         <f>AVERAGE(O2:O22)/5*100</f>
         <v>98.571428571428584</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="35">
         <f>AVERAGE(P2:P22)/9*100</f>
         <v>80.158730158730165</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="35">
         <f>AVERAGE(Q2:Q22)/6*100</f>
         <v>94.791666666666657</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="35">
         <f>AVERAGE(R2:R22)/7*100</f>
         <v>95.982142857142861</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="35">
         <f>AVERAGE(S2:S22)/3*100</f>
         <v>79.166666666666657</v>
       </c>
-      <c r="T23" s="37">
+      <c r="T23" s="35">
         <f>AVERAGE(T2:T22)/4*100</f>
         <v>78.125</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="36">
         <f>AVERAGE(U2:U22)/2*100</f>
         <v>96.875</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="36">
         <f>AVERAGE(V2:V22)/10*100</f>
         <v>96.25</v>
       </c>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38">
+      <c r="W23" s="36"/>
+      <c r="X23" s="36">
         <f>AVERAGE(X2:X22)/13*100</f>
         <v>91.826923076923066</v>
       </c>
-      <c r="Y23" s="37">
+      <c r="Y23" s="35">
         <f>AVERAGE(Y2:Y22)/6*100</f>
         <v>61.458333333333336</v>
       </c>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37">
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35">
         <f>AVERAGE(AA2:AA22)/4*100</f>
         <v>86.458333333333343</v>
       </c>
-      <c r="AB23" s="37">
+      <c r="AB23" s="35">
         <f>AVERAGE(AB2:AB22)/5*100</f>
         <v>97.5</v>
       </c>
-      <c r="AC23" s="37">
+      <c r="AC23" s="35">
         <f>AVERAGE(AC2:AC22)/4*100</f>
         <v>89.583333333333343</v>
       </c>
-      <c r="AD23" s="37">
+      <c r="AD23" s="35">
         <f>AVERAGE(AD2:AD22)/12*100</f>
         <v>71.527777777777786</v>
       </c>
-      <c r="AE23" s="37">
+      <c r="AE23" s="35">
         <f>AVERAGE(AE2:AE22)/10*100</f>
         <v>92.5</v>
       </c>
-      <c r="AF23" s="37"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AF23" s="35"/>
+    </row>
+    <row r="24" spans="1:32" ht="14">
       <c r="A24" s="3"/>
-      <c r="B24" s="30">
+      <c r="B24" s="28">
         <v>6</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="28">
         <v>7</v>
       </c>
       <c r="D24" s="3">
@@ -6276,73 +6253,74 @@
       <c r="I24" s="3">
         <v>3</v>
       </c>
-      <c r="J24" s="30">
-        <v>5</v>
-      </c>
-      <c r="K24" s="39">
-        <v>2</v>
-      </c>
-      <c r="L24" s="39">
-        <v>2</v>
-      </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="39">
+      <c r="J24" s="28">
+        <v>5</v>
+      </c>
+      <c r="K24" s="37">
+        <v>2</v>
+      </c>
+      <c r="L24" s="37">
+        <v>2</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="37">
         <v>9</v>
       </c>
-      <c r="O24" s="39">
-        <v>5</v>
-      </c>
-      <c r="P24" s="39">
+      <c r="O24" s="37">
+        <v>5</v>
+      </c>
+      <c r="P24" s="37">
         <v>9</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="37">
         <v>6</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="37">
         <v>7</v>
       </c>
-      <c r="S24" s="39">
-        <v>3</v>
-      </c>
-      <c r="T24" s="39">
+      <c r="S24" s="37">
+        <v>3</v>
+      </c>
+      <c r="T24" s="37">
         <v>4</v>
       </c>
-      <c r="U24" s="40">
-        <v>2</v>
-      </c>
-      <c r="V24" s="40">
+      <c r="U24" s="38">
+        <v>2</v>
+      </c>
+      <c r="V24" s="38">
         <v>10</v>
       </c>
-      <c r="W24" s="38"/>
-      <c r="X24" s="40">
+      <c r="W24" s="36"/>
+      <c r="X24" s="38">
         <v>13</v>
       </c>
-      <c r="Y24" s="39">
+      <c r="Y24" s="37">
         <v>6</v>
       </c>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="39">
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="37">
         <v>4</v>
       </c>
-      <c r="AB24" s="39">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="39">
+      <c r="AB24" s="37">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="37">
         <v>4</v>
       </c>
-      <c r="AD24" s="39">
+      <c r="AD24" s="37">
         <v>12</v>
       </c>
-      <c r="AE24" s="39">
+      <c r="AE24" s="37">
         <v>10</v>
       </c>
-      <c r="AF24" s="37">
+      <c r="AF24" s="35">
         <f>SUM(A24:AE24)</f>
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6357,42 +6335,42 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="14">
       <c r="A1" s="27" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>264</v>
+        <v>238</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="3">
@@ -6419,13 +6397,13 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <f t="shared" ref="J2:J21" si="0">SUM(B2:I2)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:10" ht="14">
+      <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="3">
@@ -6452,13 +6430,13 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:10" ht="14">
+      <c r="A4" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="3">
@@ -6485,12 +6463,12 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>190</v>
       </c>
@@ -6515,12 +6493,12 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -6548,12 +6526,12 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>198</v>
       </c>
@@ -6581,12 +6559,12 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>199</v>
       </c>
@@ -6614,12 +6592,12 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -6638,7 +6616,7 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>0.5</v>
       </c>
       <c r="H9" s="3">
@@ -6647,12 +6625,12 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>182</v>
       </c>
@@ -6674,18 +6652,18 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>193</v>
       </c>
@@ -6713,14 +6691,14 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -6746,12 +6724,12 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -6779,12 +6757,12 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -6812,12 +6790,12 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="12.5">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
@@ -6845,12 +6823,12 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="34">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="12.5">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
@@ -6878,12 +6856,12 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="12.5">
       <c r="A17" s="3" t="s">
         <v>174</v>
       </c>
@@ -6911,12 +6889,12 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="12.5">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
@@ -6944,12 +6922,12 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="12.5">
       <c r="A19" s="3" t="s">
         <v>197</v>
       </c>
@@ -6977,14 +6955,14 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="12.5">
       <c r="A20" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -7010,12 +6988,12 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="12.5">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
@@ -7043,22 +7021,22 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="12.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7076,89 +7054,89 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" ht="14">
+      <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>246</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14">
+      <c r="A2" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="46">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46">
-        <v>1</v>
-      </c>
-      <c r="F2" s="46">
-        <v>1</v>
-      </c>
-      <c r="G2" s="46">
-        <v>1</v>
-      </c>
-      <c r="H2" s="47">
-        <v>1</v>
-      </c>
-      <c r="I2" s="46">
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44">
+        <v>1</v>
+      </c>
+      <c r="G2" s="44">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45">
+        <v>1</v>
+      </c>
+      <c r="I2" s="44">
         <v>1</v>
       </c>
       <c r="J2" s="23">
         <f>SUM(B2:I2)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <f>Pretest!J2</f>
         <v>2.5</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="46">
         <f t="shared" ref="M2:M18" si="0">J2</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:13" ht="14">
+      <c r="A3" s="43" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="23"/>
@@ -7170,54 +7148,54 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="L3" s="36">
+      <c r="L3" s="34">
         <f>Pretest!J3</f>
         <v>5</v>
       </c>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:13" ht="14">
+      <c r="A4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="46">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46">
-        <v>1</v>
-      </c>
-      <c r="G4" s="46">
-        <v>1</v>
-      </c>
-      <c r="H4" s="49">
-        <v>0</v>
-      </c>
-      <c r="I4" s="46">
+      <c r="B4" s="44">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44">
+        <v>1</v>
+      </c>
+      <c r="G4" s="44">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
         <v>1</v>
       </c>
       <c r="J4" s="23">
         <f>SUM(B4:I4)</f>
         <v>7</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="34">
         <f>Pretest!J4</f>
         <v>3</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>190</v>
       </c>
@@ -7230,13 +7208,13 @@
       <c r="H5" s="23"/>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
-      <c r="L5" s="36">
+      <c r="L5" s="34">
         <f>Pretest!J5</f>
         <v>6</v>
       </c>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>179</v>
       </c>
@@ -7249,127 +7227,127 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="L6" s="36">
+      <c r="L6" s="34">
         <f>Pretest!J6</f>
         <v>8</v>
       </c>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="46">
-        <v>1</v>
-      </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="46">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46">
-        <v>1</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44">
         <v>1</v>
       </c>
       <c r="J7" s="23">
         <f t="shared" ref="J7:J10" si="1">SUM(B7:I7)</f>
         <v>8</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <f>Pretest!J7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="46">
-        <v>1</v>
-      </c>
-      <c r="C8" s="46">
-        <v>1</v>
-      </c>
-      <c r="D8" s="46">
-        <v>1</v>
-      </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46">
-        <v>1</v>
-      </c>
-      <c r="G8" s="46">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50">
-        <v>0</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="44">
+        <v>1</v>
+      </c>
+      <c r="H8" s="48">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
         <v>0</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="49">
         <f>Pretest!J8</f>
         <v>6</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="46">
-        <v>1</v>
-      </c>
-      <c r="C9" s="46">
-        <v>1</v>
-      </c>
-      <c r="D9" s="46">
-        <v>1</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46">
-        <v>1</v>
-      </c>
-      <c r="G9" s="53">
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
+      <c r="C9" s="44">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44">
+        <v>1</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="51">
         <v>0.5</v>
       </c>
-      <c r="H9" s="46">
-        <v>1</v>
-      </c>
-      <c r="I9" s="46">
+      <c r="H9" s="44">
+        <v>1</v>
+      </c>
+      <c r="I9" s="44">
         <v>1</v>
       </c>
       <c r="J9" s="23">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="52">
         <f>Pretest!J9</f>
         <v>7.5</v>
       </c>
@@ -7378,48 +7356,48 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="46">
-        <v>1</v>
-      </c>
-      <c r="C10" s="46">
-        <v>1</v>
-      </c>
-      <c r="D10" s="46">
-        <v>1</v>
-      </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="46">
-        <v>1</v>
-      </c>
-      <c r="G10" s="46">
-        <v>1</v>
-      </c>
-      <c r="H10" s="47">
-        <v>1</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44">
         <v>1</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="53">
         <f>Pretest!J10</f>
         <v>7</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>193</v>
       </c>
@@ -7432,12 +7410,12 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -7448,259 +7426,259 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="55">
+      <c r="L12" s="53">
         <f>Pretest!J12</f>
         <v>8</v>
       </c>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="46">
-        <v>1</v>
-      </c>
-      <c r="C13" s="46">
-        <v>1</v>
-      </c>
-      <c r="D13" s="46">
-        <v>1</v>
-      </c>
-      <c r="E13" s="46">
-        <v>1</v>
-      </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="47">
-        <v>1</v>
-      </c>
-      <c r="H13" s="46">
-        <v>1</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1</v>
+      </c>
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="44">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45">
+        <v>1</v>
+      </c>
+      <c r="H13" s="44">
+        <v>1</v>
+      </c>
+      <c r="I13" s="44">
         <v>1</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" ref="J13:J18" si="2">SUM(B13:I13)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="53">
         <f>Pretest!J13</f>
         <v>5</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="50">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46">
-        <v>1</v>
-      </c>
-      <c r="D14" s="46">
-        <v>1</v>
-      </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
-      <c r="F14" s="46">
-        <v>1</v>
-      </c>
-      <c r="G14" s="46">
-        <v>1</v>
-      </c>
-      <c r="H14" s="46">
+      <c r="B14" s="48">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" s="44">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <v>1</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+      <c r="G14" s="44">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
         <v>0.5</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="44">
         <v>0</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="53">
         <f>Pretest!J14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="46">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="12.5">
       <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46">
-        <v>1</v>
-      </c>
-      <c r="E15" s="46">
-        <v>1</v>
-      </c>
-      <c r="F15" s="46">
-        <v>1</v>
-      </c>
-      <c r="G15" s="46">
-        <v>1</v>
-      </c>
-      <c r="H15" s="47">
-        <v>1</v>
-      </c>
-      <c r="I15" s="46">
+      <c r="B15" s="44">
+        <v>1</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
+        <v>1</v>
+      </c>
+      <c r="F15" s="44">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45">
+        <v>1</v>
+      </c>
+      <c r="I15" s="44">
         <v>1</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="53">
         <f>Pretest!J15</f>
         <v>7.5</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="12.5">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="46">
-        <v>1</v>
-      </c>
-      <c r="C16" s="46">
-        <v>1</v>
-      </c>
-      <c r="D16" s="46">
-        <v>1</v>
-      </c>
-      <c r="E16" s="46">
-        <v>1</v>
-      </c>
-      <c r="F16" s="46">
-        <v>1</v>
-      </c>
-      <c r="G16" s="46">
-        <v>1</v>
-      </c>
-      <c r="H16" s="46">
-        <v>1</v>
-      </c>
-      <c r="I16" s="46">
+      <c r="B16" s="44">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="44">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44">
+        <v>1</v>
+      </c>
+      <c r="I16" s="44">
         <v>0</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <f>Pretest!J16</f>
         <v>5</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="12.5">
       <c r="A17" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="46">
-        <v>1</v>
-      </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="46">
-        <v>1</v>
-      </c>
-      <c r="E17" s="46">
-        <v>1</v>
-      </c>
-      <c r="F17" s="46">
-        <v>1</v>
-      </c>
-      <c r="G17" s="46">
-        <v>0</v>
-      </c>
-      <c r="H17" s="46">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46">
+      <c r="B17" s="44">
+        <v>1</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44">
+        <v>1</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+      <c r="F17" s="44">
+        <v>1</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
         <v>1</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="53">
         <f>Pretest!J17</f>
         <v>2</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="12.5">
       <c r="A18" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="46">
-        <v>1</v>
-      </c>
-      <c r="C18" s="46">
-        <v>1</v>
-      </c>
-      <c r="D18" s="46">
-        <v>1</v>
-      </c>
-      <c r="E18" s="46">
-        <v>1</v>
-      </c>
-      <c r="F18" s="46">
-        <v>1</v>
-      </c>
-      <c r="G18" s="46">
-        <v>1</v>
-      </c>
-      <c r="H18" s="46">
-        <v>1</v>
-      </c>
-      <c r="I18" s="46">
+      <c r="B18" s="44">
+        <v>1</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+      <c r="F18" s="44">
+        <v>1</v>
+      </c>
+      <c r="G18" s="44">
+        <v>1</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1</v>
+      </c>
+      <c r="I18" s="44">
         <v>1</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="54">
         <f>Pretest!J18</f>
         <v>8</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="12.5">
       <c r="A19" s="22" t="s">
         <v>197</v>
       </c>
@@ -7720,9 +7698,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="12.5">
       <c r="A20" s="22" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -7734,7 +7712,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="12.5">
       <c r="A21" s="22" t="s">
         <v>173</v>
       </c>
@@ -7743,12 +7721,12 @@
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="12.5">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -7759,10 +7737,10 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7772,72 +7750,72 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="58"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="42"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="45"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="45"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="45"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="J25" s="34"/>
+    </row>
+    <row r="28" spans="1:13" ht="13">
+      <c r="A28" s="56"/>
+    </row>
+    <row r="29" spans="1:13" ht="14">
+      <c r="A29" s="40"/>
+    </row>
+    <row r="30" spans="1:13" ht="14">
+      <c r="A30" s="43"/>
+    </row>
+    <row r="31" spans="1:13" ht="14">
+      <c r="A31" s="43"/>
+    </row>
+    <row r="32" spans="1:13" ht="14">
+      <c r="A32" s="43"/>
+    </row>
+    <row r="33" spans="1:1" ht="12.5">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="12.5">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="12.5">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="12.5">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="12.5">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" ht="12.5">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" ht="12.5">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="12.5">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="12.5">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="12.5">
       <c r="A42" s="22"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" ht="12.5">
       <c r="A43" s="22"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="12.5">
       <c r="A44" s="22"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" ht="12.5">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="12.5">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="12.5">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="12.5">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="12.5">
       <c r="A49" s="22"/>
     </row>
   </sheetData>
@@ -7852,46 +7830,46 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="3">
@@ -7918,18 +7896,18 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A3" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="45" t="s">
+      <c r="J3" s="72"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A4" s="43" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="3">
@@ -7956,23 +7934,23 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1">
+    <row r="5" spans="1:10" ht="13" thickBot="1">
       <c r="A5" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="74"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" thickBot="1">
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10" ht="13" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="74"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" thickBot="1">
+      <c r="J6" s="72"/>
+    </row>
+    <row r="7" spans="1:10" ht="13" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>198</v>
       </c>
@@ -8000,11 +7978,11 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" thickBot="1">
+    <row r="8" spans="1:10" ht="13" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>199</v>
       </c>
@@ -8032,11 +8010,11 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1">
+    <row r="9" spans="1:10" ht="13" thickBot="1">
       <c r="A9" s="22" t="s">
         <v>196</v>
       </c>
@@ -8064,11 +8042,11 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13" thickBot="1">
       <c r="A10" s="22" t="s">
         <v>182</v>
       </c>
@@ -8096,23 +8074,23 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" thickBot="1">
+    <row r="11" spans="1:10" ht="13" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1">
+      <c r="J11" s="72"/>
+    </row>
+    <row r="12" spans="1:10" ht="13" thickBot="1">
       <c r="A12" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" thickBot="1">
+        <v>235</v>
+      </c>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:10" ht="13" thickBot="1">
       <c r="A13" s="22" t="s">
         <v>171</v>
       </c>
@@ -8140,11 +8118,11 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="75">
+      <c r="J13" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1">
+    <row r="14" spans="1:10" ht="13" thickBot="1">
       <c r="A14" s="22" t="s">
         <v>202</v>
       </c>
@@ -8172,11 +8150,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="73">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1">
+    <row r="15" spans="1:10" ht="13" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
@@ -8204,11 +8182,11 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1">
+    <row r="16" spans="1:10" ht="13" thickBot="1">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
@@ -8236,11 +8214,11 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.5" thickBot="1">
+    <row r="17" spans="1:10" ht="13" thickBot="1">
       <c r="A17" s="22" t="s">
         <v>174</v>
       </c>
@@ -8268,11 +8246,11 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1">
+      <c r="J17" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13" thickBot="1">
       <c r="A18" s="22" t="s">
         <v>184</v>
       </c>
@@ -8300,11 +8278,11 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.5" thickBot="1">
+    <row r="19" spans="1:10" ht="13" thickBot="1">
       <c r="A19" s="22" t="s">
         <v>197</v>
       </c>
@@ -8332,22 +8310,22 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75">
+    <row r="20" spans="1:10" ht="12.5">
       <c r="A20" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="12.75">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.5">
       <c r="A21" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75">
-      <c r="J22" s="36"/>
+    <row r="22" spans="1:10" ht="12.5">
+      <c r="J22" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8364,37 +8342,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="60.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>250</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -8421,9 +8399,9 @@
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -8450,9 +8428,9 @@
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
     </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -8479,159 +8457,159 @@
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="12.5">
+      <c r="A15" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="12.5">
+      <c r="A16" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.5">
+      <c r="A17" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.5">
+      <c r="A18" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.5">
+      <c r="A19" s="39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.5">
+      <c r="A20" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.5">
+      <c r="A21" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.5">
+      <c r="A22" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.5">
+      <c r="A23" s="59"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.5">
+      <c r="A24" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.5">
+      <c r="A25" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.5">
+      <c r="A26" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.5">
+      <c r="A27" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.5">
+      <c r="A28" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.5">
+      <c r="A29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="12.5">
+      <c r="A31" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="3" t="s">
+      <c r="B31" s="61">
+        <v>44839</v>
+      </c>
+      <c r="C31" s="62">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.5">
+      <c r="A32" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="3" t="s">
+      <c r="B32" s="61">
+        <v>44841</v>
+      </c>
+      <c r="C32" s="62">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.5">
+      <c r="A33" s="64" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="3" t="s">
+      <c r="B33" s="61">
+        <v>44841</v>
+      </c>
+      <c r="C33" s="62">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.5">
+      <c r="A34" s="64" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="41" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="61"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B31" s="63">
-        <v>44839</v>
-      </c>
-      <c r="C31" s="64">
-        <v>0.375</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="63">
+      <c r="B34" s="61">
         <v>44841</v>
       </c>
-      <c r="C32" s="64">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="B33" s="63">
-        <v>44841</v>
-      </c>
-      <c r="C33" s="64">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="63">
-        <v>44841</v>
-      </c>
-      <c r="C34" s="64">
+      <c r="C34" s="62">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8647,112 +8625,112 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" customWidth="1"/>
-    <col min="22" max="22" width="26.42578125" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" customWidth="1"/>
+    <col min="13" max="13" width="25.26953125" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" customWidth="1"/>
+    <col min="15" max="15" width="25.7265625" customWidth="1"/>
+    <col min="16" max="16" width="25.453125" customWidth="1"/>
+    <col min="17" max="17" width="25.81640625" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" customWidth="1"/>
+    <col min="19" max="19" width="25.54296875" customWidth="1"/>
+    <col min="20" max="20" width="25.7265625" customWidth="1"/>
+    <col min="21" max="21" width="25.54296875" customWidth="1"/>
+    <col min="22" max="22" width="26.453125" customWidth="1"/>
+    <col min="23" max="23" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="T1" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="U1" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="V1" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="W1" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+    </row>
+    <row r="2" spans="1:26" ht="14">
+      <c r="A2" s="30">
+        <f t="shared" ref="A2:A21" si="0">ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25">
-      <c r="A2" s="32">
-        <f t="shared" ref="A2:A21" si="0">ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -8797,34 +8775,34 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="R2" s="3">
         <v>4</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25">
-      <c r="A3" s="32">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14">
+      <c r="A3" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -8832,7 +8810,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="67">
         <v>44622</v>
       </c>
       <c r="F3" s="3">
@@ -8847,7 +8825,7 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="67">
         <v>44653</v>
       </c>
       <c r="K3" s="3">
@@ -8869,34 +8847,34 @@
         <v>3</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="R3" s="69">
+        <v>309</v>
+      </c>
+      <c r="R3" s="67">
         <v>44656</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25">
-      <c r="A4" s="32">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14">
+      <c r="A4" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -8941,34 +8919,34 @@
         <v>3</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="R4" s="3">
         <v>5</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25">
-      <c r="A5" s="32">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14">
+      <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -9013,34 +8991,34 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="R5" s="3">
         <v>5</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="W5" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25">
-      <c r="A6" s="32">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14">
+      <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -9091,13 +9069,13 @@
         <v>5</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -9106,13 +9084,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:26" ht="14">
+      <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9157,34 +9135,34 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="R7" s="3">
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25">
-      <c r="A8" s="32">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14">
+      <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -9229,34 +9207,34 @@
         <v>2</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="R8" s="3">
         <v>4</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25">
-      <c r="A9" s="32">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14">
+      <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -9301,34 +9279,34 @@
         <v>2</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="R9" s="3">
         <v>5</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25">
-      <c r="A10" s="32">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14">
+      <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -9373,34 +9351,34 @@
         <v>2</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="R10" s="3">
         <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25">
-      <c r="A11" s="32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14">
+      <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -9451,28 +9429,28 @@
         <v>5</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="W11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
-      <c r="A12" s="32">
+    <row r="12" spans="1:26" ht="14">
+      <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -9517,34 +9495,34 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="R12" s="3">
         <v>5</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25">
-      <c r="A13" s="32">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14">
+      <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -9589,284 +9567,284 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="R13" s="3">
         <v>5</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="U13" s="3">
         <v>0</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25">
-      <c r="A14" s="70">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14">
+      <c r="A14" s="68">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="71">
-        <v>1</v>
-      </c>
-      <c r="D14" s="71">
-        <v>1</v>
-      </c>
-      <c r="E14" s="71">
-        <v>3</v>
-      </c>
-      <c r="F14" s="71">
-        <v>1</v>
-      </c>
-      <c r="G14" s="71">
-        <v>1</v>
-      </c>
-      <c r="H14" s="71">
-        <v>1</v>
-      </c>
-      <c r="I14" s="71">
-        <v>1</v>
-      </c>
-      <c r="J14" s="71">
-        <v>2</v>
-      </c>
-      <c r="K14" s="71">
+      <c r="B14" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1</v>
+      </c>
+      <c r="D14" s="69">
+        <v>1</v>
+      </c>
+      <c r="E14" s="69">
+        <v>3</v>
+      </c>
+      <c r="F14" s="69">
+        <v>1</v>
+      </c>
+      <c r="G14" s="69">
+        <v>1</v>
+      </c>
+      <c r="H14" s="69">
+        <v>1</v>
+      </c>
+      <c r="I14" s="69">
+        <v>1</v>
+      </c>
+      <c r="J14" s="69">
+        <v>2</v>
+      </c>
+      <c r="K14" s="69">
         <v>4</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="69">
         <v>4</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="69">
         <v>4</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="69">
         <v>4</v>
       </c>
-      <c r="O14" s="71">
-        <v>3</v>
-      </c>
-      <c r="P14" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="71">
-        <v>0</v>
-      </c>
-      <c r="R14" s="71">
+      <c r="O14" s="69">
+        <v>3</v>
+      </c>
+      <c r="P14" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="69">
+        <v>0</v>
+      </c>
+      <c r="R14" s="69">
         <v>4</v>
       </c>
-      <c r="S14" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="T14" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="U14" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="V14" s="71">
-        <v>0</v>
-      </c>
-      <c r="W14" s="71">
-        <v>0</v>
-      </c>
-      <c r="X14" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25">
-      <c r="A15" s="70">
+      <c r="S14" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="T14" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="U14" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="V14" s="69">
+        <v>0</v>
+      </c>
+      <c r="W14" s="69">
+        <v>0</v>
+      </c>
+      <c r="X14" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+    </row>
+    <row r="15" spans="1:26" ht="14">
+      <c r="A15" s="68">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" s="71">
-        <v>1</v>
-      </c>
-      <c r="D15" s="71">
-        <v>1</v>
-      </c>
-      <c r="E15" s="71">
-        <v>1</v>
-      </c>
-      <c r="F15" s="71">
-        <v>1</v>
-      </c>
-      <c r="G15" s="71">
-        <v>1</v>
-      </c>
-      <c r="H15" s="71">
-        <v>1</v>
-      </c>
-      <c r="I15" s="71">
-        <v>2</v>
-      </c>
-      <c r="J15" s="71">
-        <v>2</v>
-      </c>
-      <c r="K15" s="71">
-        <v>5</v>
-      </c>
-      <c r="L15" s="71">
-        <v>5</v>
-      </c>
-      <c r="M15" s="71">
-        <v>5</v>
-      </c>
-      <c r="N15" s="71">
-        <v>5</v>
-      </c>
-      <c r="O15" s="71">
-        <v>5</v>
-      </c>
-      <c r="P15" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="R15" s="71">
-        <v>5</v>
-      </c>
-      <c r="S15" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="T15" s="72" t="s">
-        <v>381</v>
-      </c>
-      <c r="U15" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="V15" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="W15" s="71">
-        <v>0</v>
-      </c>
-      <c r="X15" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25">
-      <c r="A16" s="70">
+      <c r="B15" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="69">
+        <v>1</v>
+      </c>
+      <c r="D15" s="69">
+        <v>1</v>
+      </c>
+      <c r="E15" s="69">
+        <v>1</v>
+      </c>
+      <c r="F15" s="69">
+        <v>1</v>
+      </c>
+      <c r="G15" s="69">
+        <v>1</v>
+      </c>
+      <c r="H15" s="69">
+        <v>1</v>
+      </c>
+      <c r="I15" s="69">
+        <v>2</v>
+      </c>
+      <c r="J15" s="69">
+        <v>2</v>
+      </c>
+      <c r="K15" s="69">
+        <v>5</v>
+      </c>
+      <c r="L15" s="69">
+        <v>5</v>
+      </c>
+      <c r="M15" s="69">
+        <v>5</v>
+      </c>
+      <c r="N15" s="69">
+        <v>5</v>
+      </c>
+      <c r="O15" s="69">
+        <v>5</v>
+      </c>
+      <c r="P15" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="R15" s="69">
+        <v>5</v>
+      </c>
+      <c r="S15" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="T15" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="U15" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="V15" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="W15" s="69">
+        <v>0</v>
+      </c>
+      <c r="X15" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+    </row>
+    <row r="16" spans="1:26" ht="14">
+      <c r="A16" s="68">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="69">
+        <v>1</v>
+      </c>
+      <c r="D16" s="69">
+        <v>1</v>
+      </c>
+      <c r="E16" s="69">
+        <v>1</v>
+      </c>
+      <c r="F16" s="69">
+        <v>1</v>
+      </c>
+      <c r="G16" s="69">
+        <v>1</v>
+      </c>
+      <c r="H16" s="69">
+        <v>2</v>
+      </c>
+      <c r="I16" s="69">
+        <v>3</v>
+      </c>
+      <c r="J16" s="69">
+        <v>2</v>
+      </c>
+      <c r="K16" s="69">
+        <v>4</v>
+      </c>
+      <c r="L16" s="69">
+        <v>4</v>
+      </c>
+      <c r="M16" s="69">
+        <v>4</v>
+      </c>
+      <c r="N16" s="69">
+        <v>4</v>
+      </c>
+      <c r="O16" s="69">
+        <v>5</v>
+      </c>
+      <c r="P16" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="R16" s="69">
+        <v>5</v>
+      </c>
+      <c r="S16" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="T16" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="U16" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="71">
-        <v>1</v>
-      </c>
-      <c r="D16" s="71">
-        <v>1</v>
-      </c>
-      <c r="E16" s="71">
-        <v>1</v>
-      </c>
-      <c r="F16" s="71">
-        <v>1</v>
-      </c>
-      <c r="G16" s="71">
-        <v>1</v>
-      </c>
-      <c r="H16" s="71">
-        <v>2</v>
-      </c>
-      <c r="I16" s="71">
-        <v>3</v>
-      </c>
-      <c r="J16" s="71">
-        <v>2</v>
-      </c>
-      <c r="K16" s="71">
-        <v>4</v>
-      </c>
-      <c r="L16" s="71">
-        <v>4</v>
-      </c>
-      <c r="M16" s="71">
-        <v>4</v>
-      </c>
-      <c r="N16" s="71">
-        <v>4</v>
-      </c>
-      <c r="O16" s="71">
-        <v>5</v>
-      </c>
-      <c r="P16" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="R16" s="71">
-        <v>5</v>
-      </c>
-      <c r="S16" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="T16" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="U16" s="72" t="s">
-        <v>386</v>
-      </c>
-      <c r="V16" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="W16" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="X16" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.25">
-      <c r="A17" s="32">
+      <c r="V16" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="W16" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="X16" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+    </row>
+    <row r="17" spans="1:1" ht="14">
+      <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.25">
-      <c r="A18" s="32">
+    <row r="18" spans="1:1" ht="14">
+      <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.25">
-      <c r="A19" s="32">
+    <row r="19" spans="1:1" ht="14">
+      <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.25">
-      <c r="A20" s="32">
+    <row r="20" spans="1:1" ht="14">
+      <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.25">
-      <c r="A21" s="32">
+    <row r="21" spans="1:1" ht="14">
+      <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>

--- a/Vorkurs_22.xlsx
+++ b/Vorkurs_22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorgo\Documents\Lehre\temp_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\Forschung\Broca-Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA31B12B-14FA-493B-9812-FDD24FCB06DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB2E27F-3A3F-42A8-973D-CC01D1879E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorkurs" sheetId="1" r:id="rId1"/>
@@ -1829,12 +1829,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="14" max="14" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.5">
+    <row r="1" spans="1:26" ht="13.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.5">
+    <row r="2" spans="1:26" ht="13.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.5">
+    <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.5">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.5">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.5">
+    <row r="6" spans="1:26" ht="13.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="12.5">
+    <row r="7" spans="1:26" ht="13.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.5">
+    <row r="8" spans="1:26" ht="13.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.5">
+    <row r="9" spans="1:26" ht="13.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.5">
+    <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.5">
+    <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.5">
+    <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.5">
+    <row r="13" spans="1:26" ht="13.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.5">
+    <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.5">
+    <row r="15" spans="1:26" ht="13.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.5">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="12.5">
+    <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="12.5">
+    <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.5">
+    <row r="19" spans="1:26" ht="13.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12.5">
+    <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12.5">
+    <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12.5">
+    <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12.5">
+    <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="12.5">
+    <row r="25" spans="1:26" ht="13.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12.5">
+    <row r="26" spans="1:26" ht="13.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="12.5">
+    <row r="27" spans="1:26" ht="13.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
     </row>
-    <row r="29" spans="1:26" ht="12.5">
+    <row r="29" spans="1:26" ht="13.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2996,9 +2996,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="13">
+    <row r="1" spans="1:13" ht="13.2">
       <c r="A1" s="17" t="s">
         <v>158</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.5">
+    <row r="15" spans="1:13" ht="13.2">
       <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.5">
+    <row r="16" spans="1:13" ht="13.2">
       <c r="A16" s="22" t="s">
         <v>196</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.5">
+    <row r="17" spans="1:13" ht="13.2">
       <c r="A17" s="22" t="s">
         <v>197</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.5">
+    <row r="18" spans="1:13" ht="13.2">
       <c r="A18" s="22" t="s">
         <v>198</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.5">
+    <row r="19" spans="1:13" ht="13.2">
       <c r="A19" s="22" t="s">
         <v>199</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.5">
+    <row r="20" spans="1:13" ht="13.2">
       <c r="A20" s="22" t="s">
         <v>200</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.5">
+    <row r="21" spans="1:13" ht="13.2">
       <c r="A21" s="22" t="s">
         <v>201</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.5">
+    <row r="22" spans="1:13" ht="13.2">
       <c r="A22" s="22" t="s">
         <v>202</v>
       </c>
@@ -3914,14 +3914,14 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
-    <col min="14" max="14" width="61.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="61.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
@@ -4444,13 +4444,13 @@
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="14">
+    <row r="1" spans="1:32" ht="13.8">
       <c r="A1" s="27" t="s">
         <v>158</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14">
+    <row r="2" spans="1:32" ht="13.8">
       <c r="A2" s="30" t="s">
         <v>192</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>92.258064516129039</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14">
+    <row r="3" spans="1:32" ht="13.8">
       <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>72.58064516129032</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="14">
+    <row r="4" spans="1:32" ht="13.8">
       <c r="A4" s="30" t="s">
         <v>194</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>79.032258064516128</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="12.5">
+    <row r="15" spans="1:32" ht="13.2">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>98.064516129032256</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="12.5">
+    <row r="16" spans="1:32" ht="13.2">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>79.677419354838705</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="12.5">
+    <row r="17" spans="1:32" ht="13.2">
       <c r="A17" s="3" t="s">
         <v>174</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>85.161290322580641</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="12.5">
+    <row r="18" spans="1:32" ht="13.2">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>72.258064516129025</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="12.5">
+    <row r="19" spans="1:32" ht="13.2">
       <c r="A19" s="3" t="s">
         <v>197</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>77.41935483870968</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="12.5">
+    <row r="20" spans="1:32" ht="13.2">
       <c r="A20" s="3" t="s">
         <v>236</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>28.70967741935484</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="12.5">
+    <row r="21" spans="1:32" ht="13.2">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>69.354838709677423</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="12.5">
+    <row r="22" spans="1:32" ht="13.2">
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="J22" s="33"/>
@@ -6110,7 +6110,7 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="28"/>
     </row>
-    <row r="23" spans="1:32" ht="14">
+    <row r="23" spans="1:32" ht="13.8">
       <c r="A23" s="3" t="s">
         <v>237</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="AF23" s="35"/>
     </row>
-    <row r="24" spans="1:32" ht="14">
+    <row r="24" spans="1:32" ht="13.8">
       <c r="A24" s="3"/>
       <c r="B24" s="28">
         <v>6</v>
@@ -6335,9 +6335,9 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="14">
+    <row r="1" spans="1:10" ht="13.8">
       <c r="A1" s="27" t="s">
         <v>158</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14">
+    <row r="2" spans="1:10" ht="13.8">
       <c r="A2" s="30" t="s">
         <v>192</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14">
+    <row r="3" spans="1:10" ht="13.8">
       <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14">
+    <row r="4" spans="1:10" ht="13.8">
       <c r="A4" s="30" t="s">
         <v>194</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.5">
+    <row r="15" spans="1:10" ht="13.2">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.5">
+    <row r="16" spans="1:10" ht="13.2">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.5">
+    <row r="17" spans="1:10" ht="13.2">
       <c r="A17" s="3" t="s">
         <v>174</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.5">
+    <row r="18" spans="1:10" ht="13.2">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.5">
+    <row r="19" spans="1:10" ht="13.2">
       <c r="A19" s="3" t="s">
         <v>197</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.5">
+    <row r="20" spans="1:10" ht="13.2">
       <c r="A20" s="3" t="s">
         <v>236</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.5">
+    <row r="21" spans="1:10" ht="13.2">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.5">
+    <row r="22" spans="1:10" ht="13.2">
       <c r="A22" s="3"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -7054,9 +7054,9 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14">
+    <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14">
+    <row r="2" spans="1:13" ht="13.8">
       <c r="A2" s="43" t="s">
         <v>192</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14">
+    <row r="3" spans="1:13" ht="13.8">
       <c r="A3" s="43" t="s">
         <v>181</v>
       </c>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="14">
+    <row r="4" spans="1:13" ht="13.8">
       <c r="A4" s="43" t="s">
         <v>194</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.5">
+    <row r="15" spans="1:13" ht="13.2">
       <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.5">
+    <row r="16" spans="1:13" ht="13.2">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.5">
+    <row r="17" spans="1:13" ht="13.2">
       <c r="A17" s="22" t="s">
         <v>174</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.5">
+    <row r="18" spans="1:13" ht="13.2">
       <c r="A18" s="22" t="s">
         <v>184</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.5">
+    <row r="19" spans="1:13" ht="13.2">
       <c r="A19" s="22" t="s">
         <v>197</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.5">
+    <row r="20" spans="1:13" ht="13.2">
       <c r="A20" s="22" t="s">
         <v>236</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:13" ht="12.5">
+    <row r="21" spans="1:13" ht="13.2">
       <c r="A21" s="22" t="s">
         <v>173</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:13" ht="12.5">
+    <row r="22" spans="1:13" ht="13.2">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -7740,7 +7740,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="25" spans="1:13" ht="12.5">
+    <row r="25" spans="1:13" ht="13.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7752,70 +7752,70 @@
       <c r="I25" s="3"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="28" spans="1:13" ht="13">
+    <row r="28" spans="1:13" ht="13.2">
       <c r="A28" s="56"/>
     </row>
-    <row r="29" spans="1:13" ht="14">
+    <row r="29" spans="1:13" ht="13.8">
       <c r="A29" s="40"/>
     </row>
-    <row r="30" spans="1:13" ht="14">
+    <row r="30" spans="1:13" ht="13.8">
       <c r="A30" s="43"/>
     </row>
-    <row r="31" spans="1:13" ht="14">
+    <row r="31" spans="1:13" ht="13.8">
       <c r="A31" s="43"/>
     </row>
-    <row r="32" spans="1:13" ht="14">
+    <row r="32" spans="1:13" ht="13.8">
       <c r="A32" s="43"/>
     </row>
-    <row r="33" spans="1:1" ht="12.5">
+    <row r="33" spans="1:1" ht="13.2">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" ht="12.5">
+    <row r="34" spans="1:1" ht="13.2">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" ht="12.5">
+    <row r="35" spans="1:1" ht="13.2">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" ht="12.5">
+    <row r="36" spans="1:1" ht="13.2">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" ht="12.5">
+    <row r="37" spans="1:1" ht="13.2">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" ht="12.5">
+    <row r="38" spans="1:1" ht="13.2">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" ht="12.5">
+    <row r="39" spans="1:1" ht="13.2">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" ht="12.5">
+    <row r="40" spans="1:1" ht="13.2">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" ht="12.5">
+    <row r="41" spans="1:1" ht="13.2">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" ht="12.5">
+    <row r="42" spans="1:1" ht="13.2">
       <c r="A42" s="22"/>
     </row>
-    <row r="43" spans="1:1" ht="12.5">
+    <row r="43" spans="1:1" ht="13.2">
       <c r="A43" s="22"/>
     </row>
-    <row r="44" spans="1:1" ht="12.5">
+    <row r="44" spans="1:1" ht="13.2">
       <c r="A44" s="22"/>
     </row>
-    <row r="45" spans="1:1" ht="12.5">
+    <row r="45" spans="1:1" ht="13.2">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:1" ht="12.5">
+    <row r="46" spans="1:1" ht="13.2">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:1" ht="12.5">
+    <row r="47" spans="1:1" ht="13.2">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:1" ht="12.5">
+    <row r="48" spans="1:1" ht="13.2">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" ht="12.5">
+    <row r="49" spans="1:1" ht="13.2">
       <c r="A49" s="22"/>
     </row>
   </sheetData>
@@ -7828,15 +7828,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5" thickBot="1">
+    <row r="2" spans="1:11" ht="14.4" thickBot="1">
       <c r="A2" s="43" t="s">
         <v>192</v>
       </c>
@@ -7897,16 +7897,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="73">
+        <v>2</v>
+      </c>
+      <c r="K2" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.5" thickBot="1">
+    <row r="3" spans="1:11" ht="14.4" thickBot="1">
       <c r="A3" s="43" t="s">
         <v>181</v>
       </c>
       <c r="J3" s="72"/>
     </row>
-    <row r="4" spans="1:10" ht="14.5" thickBot="1">
+    <row r="4" spans="1:11" ht="14.4" thickBot="1">
       <c r="A4" s="43" t="s">
         <v>194</v>
       </c>
@@ -7935,22 +7938,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="73">
+        <v>2</v>
+      </c>
+      <c r="K4" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" thickBot="1">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1">
       <c r="A5" s="22" t="s">
         <v>190</v>
       </c>
       <c r="J5" s="72"/>
     </row>
-    <row r="6" spans="1:10" ht="13" thickBot="1">
+    <row r="6" spans="1:11" ht="13.8" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>179</v>
       </c>
       <c r="J6" s="72"/>
     </row>
-    <row r="7" spans="1:10" ht="13" thickBot="1">
+    <row r="7" spans="1:11" ht="13.8" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>198</v>
       </c>
@@ -7979,10 +7985,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="73">
+        <v>2</v>
+      </c>
+      <c r="K7" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" thickBot="1">
+    <row r="8" spans="1:11" ht="13.8" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>199</v>
       </c>
@@ -8011,10 +8020,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="73">
+        <v>2</v>
+      </c>
+      <c r="K8" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" thickBot="1">
+    <row r="9" spans="1:11" ht="13.8" thickBot="1">
       <c r="A9" s="22" t="s">
         <v>196</v>
       </c>
@@ -8043,10 +8055,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="73">
+        <v>2</v>
+      </c>
+      <c r="K9" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" thickBot="1">
+    <row r="10" spans="1:11" ht="13.8" thickBot="1">
       <c r="A10" s="22" t="s">
         <v>182</v>
       </c>
@@ -8075,22 +8090,25 @@
         <v>1</v>
       </c>
       <c r="J10" s="73">
+        <v>2</v>
+      </c>
+      <c r="K10" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" thickBot="1">
+    <row r="11" spans="1:11" ht="13.8" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>193</v>
       </c>
       <c r="J11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="13" thickBot="1">
+    <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="22" t="s">
         <v>235</v>
       </c>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="1:10" ht="13" thickBot="1">
+    <row r="13" spans="1:11" ht="13.8" thickBot="1">
       <c r="A13" s="22" t="s">
         <v>171</v>
       </c>
@@ -8119,10 +8137,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="73">
+        <v>2</v>
+      </c>
+      <c r="K13" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" thickBot="1">
+    <row r="14" spans="1:11" ht="13.8" thickBot="1">
       <c r="A14" s="22" t="s">
         <v>202</v>
       </c>
@@ -8151,10 +8172,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="73">
+        <v>0</v>
+      </c>
+      <c r="K14" s="73">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" thickBot="1">
+    <row r="15" spans="1:11" ht="13.8" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
@@ -8183,10 +8207,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="73">
+        <v>2</v>
+      </c>
+      <c r="K15" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" thickBot="1">
+    <row r="16" spans="1:11" ht="13.8" thickBot="1">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
@@ -8215,10 +8242,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="73">
+        <v>2</v>
+      </c>
+      <c r="K16" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13" thickBot="1">
+    <row r="17" spans="1:11" ht="13.8" thickBot="1">
       <c r="A17" s="22" t="s">
         <v>174</v>
       </c>
@@ -8247,10 +8277,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.8" thickBot="1">
       <c r="A18" s="22" t="s">
         <v>184</v>
       </c>
@@ -8279,10 +8312,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="73">
+        <v>2</v>
+      </c>
+      <c r="K18" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13" thickBot="1">
+    <row r="19" spans="1:11" ht="13.8" thickBot="1">
       <c r="A19" s="22" t="s">
         <v>197</v>
       </c>
@@ -8311,20 +8347,23 @@
         <v>1</v>
       </c>
       <c r="J19" s="73">
+        <v>2</v>
+      </c>
+      <c r="K19" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.5">
+    <row r="20" spans="1:11" ht="13.2">
       <c r="A20" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.5">
+    <row r="21" spans="1:11" ht="13.2">
       <c r="A21" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.5">
+    <row r="22" spans="1:11" ht="13.2">
       <c r="J22" s="34"/>
     </row>
   </sheetData>
@@ -8342,9 +8381,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="60.453125" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
@@ -8481,75 +8520,75 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="12.5">
+    <row r="15" spans="1:27" ht="13.2">
       <c r="A15" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.5">
+    <row r="16" spans="1:27" ht="13.2">
       <c r="A16" s="39" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.5">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="39" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5">
+    <row r="18" spans="1:5" ht="13.2">
       <c r="A18" s="39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5">
+    <row r="19" spans="1:5" ht="13.2">
       <c r="A19" s="39" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5">
+    <row r="20" spans="1:5" ht="13.2">
       <c r="A20" s="39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5">
+    <row r="21" spans="1:5" ht="13.2">
       <c r="A21" s="39" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.5">
+    <row r="22" spans="1:5" ht="13.2">
       <c r="A22" s="39" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.5">
+    <row r="23" spans="1:5" ht="13.2">
       <c r="A23" s="59"/>
     </row>
-    <row r="24" spans="1:5" ht="12.5">
+    <row r="24" spans="1:5" ht="13.2">
       <c r="A24" s="39" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5">
+    <row r="25" spans="1:5" ht="13.2">
       <c r="A25" s="60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.5">
+    <row r="26" spans="1:5" ht="13.2">
       <c r="A26" s="39" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.5">
+    <row r="27" spans="1:5" ht="13.2">
       <c r="A27" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.5">
+    <row r="28" spans="1:5" ht="13.2">
       <c r="A28" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.5">
+    <row r="29" spans="1:5" ht="13.2">
       <c r="A29" s="3" t="s">
         <v>272</v>
       </c>
@@ -8557,7 +8596,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.5">
+    <row r="31" spans="1:5" ht="13.2">
       <c r="A31" s="3" t="s">
         <v>274</v>
       </c>
@@ -8572,7 +8611,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.5">
+    <row r="32" spans="1:5" ht="13.2">
       <c r="A32" s="63" t="s">
         <v>275</v>
       </c>
@@ -8585,7 +8624,7 @@
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
     </row>
-    <row r="33" spans="1:5" ht="12.5">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="A33" s="64" t="s">
         <v>276</v>
       </c>
@@ -8598,7 +8637,7 @@
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
     </row>
-    <row r="34" spans="1:5" ht="12.5">
+    <row r="34" spans="1:5" ht="13.2">
       <c r="A34" s="64" t="s">
         <v>277</v>
       </c>
@@ -8625,29 +8664,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="4" width="25.77734375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="25.7265625" customWidth="1"/>
-    <col min="9" max="9" width="25.81640625" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" customWidth="1"/>
-    <col min="13" max="13" width="25.26953125" customWidth="1"/>
-    <col min="14" max="14" width="25.81640625" customWidth="1"/>
-    <col min="15" max="15" width="25.7265625" customWidth="1"/>
-    <col min="16" max="16" width="25.453125" customWidth="1"/>
-    <col min="17" max="17" width="25.81640625" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" customWidth="1"/>
-    <col min="19" max="19" width="25.54296875" customWidth="1"/>
-    <col min="20" max="20" width="25.7265625" customWidth="1"/>
-    <col min="21" max="21" width="25.54296875" customWidth="1"/>
-    <col min="22" max="22" width="26.453125" customWidth="1"/>
-    <col min="23" max="23" width="25.7265625" customWidth="1"/>
+    <col min="6" max="11" width="25.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" customWidth="1"/>
+    <col min="14" max="15" width="25.77734375" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" customWidth="1"/>
+    <col min="17" max="17" width="25.77734375" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" customWidth="1"/>
+    <col min="20" max="20" width="25.77734375" customWidth="1"/>
+    <col min="21" max="21" width="25.5546875" customWidth="1"/>
+    <col min="22" max="22" width="26.44140625" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -8724,7 +8757,7 @@
       <c r="Y1" s="66"/>
       <c r="Z1" s="66"/>
     </row>
-    <row r="2" spans="1:26" ht="14">
+    <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="30">
         <f t="shared" ref="A2:A21" si="0">ROW(A1)</f>
         <v>1</v>
@@ -8796,7 +8829,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14">
+    <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8868,7 +8901,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="13.8">
       <c r="A4" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8940,7 +8973,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="13.8">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9012,7 +9045,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="13.8">
       <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9084,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="13.8">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9156,7 +9189,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="13.8">
       <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9228,7 +9261,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="13.8">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9300,7 +9333,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="13.8">
       <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9372,7 +9405,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="13.8">
       <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9444,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="13.8">
       <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9516,7 +9549,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="13.8">
       <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9588,7 +9621,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="13.8">
       <c r="A14" s="68">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9665,7 +9698,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="71"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="13.8">
       <c r="A15" s="68">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9742,7 +9775,7 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="13.8">
       <c r="A16" s="68">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9819,31 +9852,31 @@
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
     </row>
-    <row r="17" spans="1:1" ht="14">
+    <row r="17" spans="1:1" ht="13.8">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14">
+    <row r="18" spans="1:1" ht="13.8">
       <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14">
+    <row r="19" spans="1:1" ht="13.8">
       <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14">
+    <row r="20" spans="1:1" ht="13.8">
       <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14">
+    <row r="21" spans="1:1" ht="13.8">
       <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
